--- a/qlda.xlsx
+++ b/qlda.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng I" sheetId="6" r:id="rId1"/>
@@ -24,12 +24,12 @@
     <definedName name="_Toc269827551" localSheetId="5">'Bảng VI'!$A$1</definedName>
     <definedName name="_Toc269827553" localSheetId="5">'Bảng VI'!$H$3</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="287">
   <si>
     <t>TT</t>
   </si>
@@ -928,16 +928,14 @@
   <si>
     <t>Giá trị điểm sử dụng</t>
   </si>
-  <si>
-    <t>TB</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1136,7 +1134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1455,17 +1453,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1474,7 +1461,7 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1682,13 +1669,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="17" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1727,33 +1707,38 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1793,8 +1778,9 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1918,6 +1904,7 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2402,7 +2389,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2437,7 +2424,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2660,19 +2647,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
       <c r="D2" s="63"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2738,148 +2725,148 @@
       <c r="D8" s="65"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="94">
+      <c r="A9" s="95">
         <v>4</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="95" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="98" t="s">
         <v>174</v>
       </c>
-      <c r="D9" s="97"/>
+      <c r="D9" s="98"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="95"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
+      <c r="A12" s="96"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
+      <c r="A13" s="96"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="95"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
+      <c r="A14" s="96"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="100"/>
-      <c r="B15" s="100"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
+      <c r="A15" s="97"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="94">
+      <c r="A16" s="95">
         <v>5</v>
       </c>
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="95" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="97" t="s">
+      <c r="C16" s="98" t="s">
         <v>168</v>
       </c>
-      <c r="D16" s="97"/>
+      <c r="D16" s="98"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="95"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="95"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="95"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
+      <c r="A19" s="96"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="95"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
+      <c r="A20" s="96"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="95"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
+      <c r="A21" s="96"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
-      <c r="B22" s="100"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
+      <c r="A22" s="97"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="94">
+      <c r="A23" s="95">
         <v>6</v>
       </c>
-      <c r="B23" s="94" t="s">
+      <c r="B23" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="C23" s="97" t="s">
+      <c r="C23" s="98" t="s">
         <v>170</v>
       </c>
-      <c r="D23" s="97"/>
+      <c r="D23" s="98"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="95"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
+      <c r="A24" s="96"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="95"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
+      <c r="A25" s="96"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="95"/>
-      <c r="B26" s="95"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
+      <c r="A26" s="96"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="95"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
+      <c r="A27" s="96"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="95"/>
-      <c r="B28" s="95"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
+      <c r="A28" s="96"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="100"/>
-      <c r="B29" s="100"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
+      <c r="A29" s="97"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
     </row>
     <row r="30" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="64">
@@ -2894,220 +2881,220 @@
       <c r="D30" s="65"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="94">
+      <c r="A31" s="95">
         <v>8</v>
       </c>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="95" t="s">
         <v>178</v>
       </c>
-      <c r="C31" s="97" t="s">
+      <c r="C31" s="98" t="s">
         <v>179</v>
       </c>
-      <c r="D31" s="97"/>
+      <c r="D31" s="98"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="95"/>
-      <c r="B32" s="95"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
+      <c r="A32" s="96"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="95"/>
-      <c r="B33" s="95"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="98"/>
+      <c r="A33" s="96"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="95"/>
-      <c r="B34" s="95"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="98"/>
+      <c r="A34" s="96"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="95"/>
-      <c r="B35" s="95"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="98"/>
+      <c r="A35" s="96"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="95"/>
-      <c r="B36" s="95"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="98"/>
+      <c r="A36" s="96"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
+      <c r="A37" s="97"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="94">
+      <c r="A38" s="95">
         <v>9</v>
       </c>
-      <c r="B38" s="94" t="s">
+      <c r="B38" s="95" t="s">
         <v>180</v>
       </c>
-      <c r="C38" s="97" t="s">
+      <c r="C38" s="98" t="s">
         <v>168</v>
       </c>
-      <c r="D38" s="97"/>
+      <c r="D38" s="98"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="95"/>
-      <c r="B39" s="95"/>
-      <c r="C39" s="98"/>
-      <c r="D39" s="98"/>
+      <c r="A39" s="96"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="95"/>
-      <c r="B40" s="95"/>
-      <c r="C40" s="98"/>
-      <c r="D40" s="98"/>
+      <c r="A40" s="96"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="95"/>
-      <c r="B41" s="95"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="98"/>
+      <c r="A41" s="96"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="95"/>
-      <c r="B42" s="95"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="98"/>
+      <c r="A42" s="96"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="95"/>
-      <c r="B43" s="95"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="98"/>
+      <c r="A43" s="96"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="100"/>
-      <c r="B44" s="100"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
+      <c r="A44" s="97"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="94">
+      <c r="A45" s="95">
         <v>10</v>
       </c>
-      <c r="B45" s="94" t="s">
+      <c r="B45" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="C45" s="97" t="s">
+      <c r="C45" s="98" t="s">
         <v>182</v>
       </c>
-      <c r="D45" s="97"/>
+      <c r="D45" s="98"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="95"/>
-      <c r="B46" s="95"/>
-      <c r="C46" s="98"/>
-      <c r="D46" s="98"/>
+      <c r="A46" s="96"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="99"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="95"/>
-      <c r="B47" s="95"/>
-      <c r="C47" s="98"/>
-      <c r="D47" s="98"/>
+      <c r="A47" s="96"/>
+      <c r="B47" s="96"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="95"/>
-      <c r="B48" s="95"/>
-      <c r="C48" s="98"/>
-      <c r="D48" s="98"/>
+      <c r="A48" s="96"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="99"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="95"/>
-      <c r="B49" s="95"/>
-      <c r="C49" s="98"/>
-      <c r="D49" s="98"/>
+      <c r="A49" s="96"/>
+      <c r="B49" s="96"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="99"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="95"/>
-      <c r="B50" s="95"/>
-      <c r="C50" s="98"/>
-      <c r="D50" s="98"/>
+      <c r="A50" s="96"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="99"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="100"/>
-      <c r="B51" s="100"/>
-      <c r="C51" s="99"/>
-      <c r="D51" s="99"/>
+      <c r="A51" s="97"/>
+      <c r="B51" s="97"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="94">
+      <c r="A52" s="95">
         <v>11</v>
       </c>
-      <c r="B52" s="94" t="s">
+      <c r="B52" s="95" t="s">
         <v>183</v>
       </c>
-      <c r="C52" s="97" t="s">
+      <c r="C52" s="98" t="s">
         <v>168</v>
       </c>
-      <c r="D52" s="97"/>
+      <c r="D52" s="98"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="95"/>
-      <c r="B53" s="95"/>
-      <c r="C53" s="98"/>
-      <c r="D53" s="98"/>
+      <c r="A53" s="96"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="99"/>
     </row>
     <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="100"/>
-      <c r="B54" s="100"/>
-      <c r="C54" s="99"/>
-      <c r="D54" s="99"/>
+      <c r="A54" s="97"/>
+      <c r="B54" s="97"/>
+      <c r="C54" s="100"/>
+      <c r="D54" s="100"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="94">
+      <c r="A55" s="95">
         <v>12</v>
       </c>
-      <c r="B55" s="94" t="s">
+      <c r="B55" s="95" t="s">
         <v>184</v>
       </c>
-      <c r="C55" s="97" t="s">
+      <c r="C55" s="98" t="s">
         <v>179</v>
       </c>
-      <c r="D55" s="97"/>
+      <c r="D55" s="98"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="95"/>
-      <c r="B56" s="95"/>
-      <c r="C56" s="98"/>
-      <c r="D56" s="98"/>
+      <c r="A56" s="96"/>
+      <c r="B56" s="96"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="99"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="95"/>
-      <c r="B57" s="95"/>
-      <c r="C57" s="98"/>
-      <c r="D57" s="98"/>
+      <c r="A57" s="96"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="99"/>
+      <c r="D57" s="99"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="95"/>
-      <c r="B58" s="95"/>
-      <c r="C58" s="98"/>
-      <c r="D58" s="98"/>
+      <c r="A58" s="96"/>
+      <c r="B58" s="96"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="99"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="95"/>
-      <c r="B59" s="95"/>
-      <c r="C59" s="98"/>
-      <c r="D59" s="98"/>
+      <c r="A59" s="96"/>
+      <c r="B59" s="96"/>
+      <c r="C59" s="99"/>
+      <c r="D59" s="99"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="95"/>
-      <c r="B60" s="95"/>
-      <c r="C60" s="98"/>
-      <c r="D60" s="98"/>
+      <c r="A60" s="96"/>
+      <c r="B60" s="96"/>
+      <c r="C60" s="99"/>
+      <c r="D60" s="99"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="96"/>
-      <c r="B61" s="96"/>
-      <c r="C61" s="101"/>
-      <c r="D61" s="101"/>
+      <c r="A61" s="101"/>
+      <c r="B61" s="101"/>
+      <c r="C61" s="102"/>
+      <c r="D61" s="102"/>
     </row>
     <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A62" s="71"/>
@@ -3447,6 +3434,26 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="D38:D44"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="C45:C51"/>
+    <mergeCell ref="D45:D51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="B55:B61"/>
+    <mergeCell ref="C55:C61"/>
+    <mergeCell ref="D55:D61"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="C31:C37"/>
+    <mergeCell ref="D31:D37"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="C38:C44"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A23:A29"/>
     <mergeCell ref="B23:B29"/>
@@ -3461,26 +3468,6 @@
     <mergeCell ref="C16:C22"/>
     <mergeCell ref="D16:D22"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="C31:C37"/>
-    <mergeCell ref="D31:D37"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="B38:B44"/>
-    <mergeCell ref="C38:C44"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="D38:D44"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="B45:B51"/>
-    <mergeCell ref="C45:C51"/>
-    <mergeCell ref="D45:D51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="B55:B61"/>
-    <mergeCell ref="C55:C61"/>
-    <mergeCell ref="D55:D61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3488,15 +3475,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="85"/>
+    <col min="1" max="1" width="9.140625" style="82"/>
     <col min="2" max="2" width="59.140625" style="67" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" style="67" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="67" customWidth="1"/>
@@ -3504,7 +3491,7 @@
     <col min="6" max="16384" width="9.140625" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="84" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="81" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3525,739 +3512,727 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="89">
+      <c r="A2" s="86">
         <v>1</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="83" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="87" t="s">
         <v>227</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90" t="s">
+      <c r="D2" s="87"/>
+      <c r="E2" s="87" t="s">
         <v>251</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="87" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="89">
+      <c r="A3" s="86">
         <v>2</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87" t="s">
         <v>252</v>
       </c>
-      <c r="F3" s="90" t="s">
+      <c r="F3" s="87" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="89">
+      <c r="A4" s="86">
         <v>3</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="83" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90" t="s">
+      <c r="D4" s="87"/>
+      <c r="E4" s="87" t="s">
         <v>253</v>
       </c>
-      <c r="F4" s="90" t="s">
+      <c r="F4" s="87" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="89">
+      <c r="A5" s="86">
         <v>4</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90" t="s">
+      <c r="D5" s="87"/>
+      <c r="E5" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="F5" s="90" t="s">
+      <c r="F5" s="87" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="89">
+      <c r="A6" s="86">
         <v>5</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="83" t="s">
         <v>216</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90" t="s">
+      <c r="D6" s="87"/>
+      <c r="E6" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="F6" s="90" t="s">
+      <c r="F6" s="87" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="89">
+      <c r="A7" s="86">
         <v>6</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="83" t="s">
         <v>217</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90" t="s">
+      <c r="D7" s="87"/>
+      <c r="E7" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="87" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="89">
+      <c r="A8" s="86">
         <v>7</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90" t="s">
+      <c r="D8" s="87"/>
+      <c r="E8" s="87" t="s">
         <v>257</v>
       </c>
-      <c r="F8" s="90" t="s">
+      <c r="F8" s="87" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="89">
+      <c r="A9" s="86">
         <v>8</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="83" t="s">
         <v>218</v>
       </c>
-      <c r="C9" s="90" t="s">
+      <c r="C9" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90" t="s">
+      <c r="D9" s="87"/>
+      <c r="E9" s="87" t="s">
         <v>258</v>
       </c>
-      <c r="F9" s="90" t="s">
+      <c r="F9" s="87" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="89">
+      <c r="A10" s="86">
         <v>9</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="83" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="90" t="s">
+      <c r="C10" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90" t="s">
+      <c r="D10" s="87"/>
+      <c r="E10" s="87" t="s">
         <v>259</v>
       </c>
-      <c r="F10" s="90" t="s">
+      <c r="F10" s="87" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="89">
+      <c r="A11" s="86">
         <v>10</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="83" t="s">
         <v>232</v>
       </c>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90" t="s">
+      <c r="D11" s="87"/>
+      <c r="E11" s="87" t="s">
         <v>260</v>
       </c>
-      <c r="F11" s="90" t="s">
+      <c r="F11" s="87" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="89">
+      <c r="A12" s="86">
         <v>11</v>
       </c>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="83" t="s">
         <v>230</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90" t="s">
+      <c r="D12" s="87"/>
+      <c r="E12" s="87" t="s">
         <v>261</v>
       </c>
-      <c r="F12" s="90" t="s">
+      <c r="F12" s="87" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="89">
+      <c r="A13" s="86">
         <v>12</v>
       </c>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="87" t="s">
         <v>225</v>
       </c>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90" t="s">
+      <c r="D13" s="87"/>
+      <c r="E13" s="87" t="s">
         <v>262</v>
       </c>
-      <c r="F13" s="90" t="s">
+      <c r="F13" s="87" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="89">
+      <c r="A14" s="86">
         <v>13</v>
       </c>
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="83" t="s">
         <v>212</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="87" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90" t="s">
+      <c r="D14" s="87"/>
+      <c r="E14" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="F14" s="90" t="s">
+      <c r="F14" s="87" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="89">
+      <c r="A15" s="86">
         <v>14</v>
       </c>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="83" t="s">
         <v>247</v>
       </c>
-      <c r="C15" s="90" t="s">
+      <c r="C15" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90" t="s">
+      <c r="D15" s="87"/>
+      <c r="E15" s="87" t="s">
         <v>263</v>
       </c>
-      <c r="F15" s="90" t="s">
+      <c r="F15" s="87" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="89">
+      <c r="A16" s="86">
         <v>15</v>
       </c>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="83" t="s">
         <v>246</v>
       </c>
-      <c r="C16" s="90" t="s">
+      <c r="C16" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90" t="s">
+      <c r="D16" s="87"/>
+      <c r="E16" s="87" t="s">
         <v>264</v>
       </c>
-      <c r="F16" s="90" t="s">
+      <c r="F16" s="87" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="89">
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="86">
         <v>16</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="83" t="s">
         <v>221</v>
       </c>
-      <c r="C17" s="90" t="s">
+      <c r="C17" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90" t="s">
+      <c r="D17" s="87"/>
+      <c r="E17" s="87" t="s">
         <v>265</v>
       </c>
-      <c r="F17" s="90" t="s">
+      <c r="F17" s="87" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="89">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="86">
         <v>17</v>
       </c>
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="83" t="s">
         <v>219</v>
       </c>
-      <c r="C18" s="90" t="s">
+      <c r="C18" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88" t="s">
+      <c r="D18" s="85"/>
+      <c r="E18" s="85" t="s">
         <v>266</v>
       </c>
-      <c r="F18" s="90" t="s">
+      <c r="F18" s="87" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="89">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="86">
         <v>18</v>
       </c>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="85" t="s">
         <v>235</v>
       </c>
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88" t="s">
+      <c r="D19" s="85"/>
+      <c r="E19" s="85" t="s">
         <v>267</v>
       </c>
-      <c r="F19" s="90" t="s">
+      <c r="F19" s="87" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="89">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="86">
         <v>19</v>
       </c>
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="84" t="s">
         <v>231</v>
       </c>
-      <c r="C20" s="90" t="s">
+      <c r="C20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88" t="s">
+      <c r="D20" s="85"/>
+      <c r="E20" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="F20" s="90" t="s">
+      <c r="F20" s="87" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="89">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="86">
         <v>20</v>
       </c>
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="83" t="s">
         <v>220</v>
       </c>
-      <c r="C21" s="90" t="s">
+      <c r="C21" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88" t="s">
+      <c r="D21" s="85"/>
+      <c r="E21" s="85" t="s">
         <v>269</v>
       </c>
-      <c r="F21" s="90" t="s">
+      <c r="F21" s="87" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="89">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="86">
         <v>21</v>
       </c>
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="83" t="s">
         <v>250</v>
       </c>
-      <c r="C22" s="90" t="s">
+      <c r="C22" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88" t="s">
+      <c r="D22" s="85"/>
+      <c r="E22" s="85" t="s">
         <v>270</v>
       </c>
-      <c r="F22" s="90" t="s">
+      <c r="F22" s="87" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="89">
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="86">
         <v>22</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="83" t="s">
         <v>213</v>
       </c>
-      <c r="C23" s="90" t="s">
+      <c r="C23" s="87" t="s">
         <v>229</v>
       </c>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88" t="s">
+      <c r="D23" s="85"/>
+      <c r="E23" s="85" t="s">
         <v>271</v>
       </c>
-      <c r="F23" s="90" t="s">
+      <c r="F23" s="87" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="89">
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="86">
         <v>23</v>
       </c>
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="83" t="s">
         <v>238</v>
       </c>
-      <c r="C24" s="90" t="s">
+      <c r="C24" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88" t="s">
+      <c r="D24" s="85"/>
+      <c r="E24" s="85" t="s">
         <v>272</v>
       </c>
-      <c r="F24" s="90" t="s">
+      <c r="F24" s="87" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="89">
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="86">
         <v>24</v>
       </c>
-      <c r="B25" s="86" t="s">
+      <c r="B25" s="83" t="s">
         <v>228</v>
       </c>
-      <c r="C25" s="90" t="s">
+      <c r="C25" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88" t="s">
+      <c r="D25" s="85"/>
+      <c r="E25" s="85" t="s">
         <v>273</v>
       </c>
-      <c r="F25" s="90" t="s">
+      <c r="F25" s="87" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="89">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="86">
         <v>25</v>
       </c>
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="83" t="s">
         <v>222</v>
       </c>
-      <c r="C26" s="90" t="s">
+      <c r="C26" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88" t="s">
+      <c r="D26" s="85"/>
+      <c r="E26" s="85" t="s">
         <v>274</v>
       </c>
-      <c r="F26" s="90" t="s">
+      <c r="F26" s="87" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="89">
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="86">
         <v>26</v>
       </c>
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="85" t="s">
         <v>241</v>
       </c>
-      <c r="C27" s="90" t="s">
+      <c r="C27" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88" t="s">
+      <c r="D27" s="85"/>
+      <c r="E27" s="85" t="s">
         <v>275</v>
       </c>
-      <c r="F27" s="90" t="s">
+      <c r="F27" s="87" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="89">
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="86">
         <v>27</v>
       </c>
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="85" t="s">
         <v>237</v>
       </c>
-      <c r="C28" s="90" t="s">
+      <c r="C28" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88" t="s">
+      <c r="D28" s="85"/>
+      <c r="E28" s="85" t="s">
         <v>276</v>
       </c>
-      <c r="F28" s="90" t="s">
+      <c r="F28" s="87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="86">
+        <v>28</v>
+      </c>
+      <c r="B29" s="85" t="s">
+        <v>242</v>
+      </c>
+      <c r="C29" s="87" t="s">
+        <v>208</v>
+      </c>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="F29" s="87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="86">
+        <v>29</v>
+      </c>
+      <c r="B30" s="85" t="s">
+        <v>236</v>
+      </c>
+      <c r="C30" s="87" t="s">
+        <v>208</v>
+      </c>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85" t="s">
+        <v>278</v>
+      </c>
+      <c r="F30" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="G28" s="116" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="89">
-        <v>28</v>
-      </c>
-      <c r="B29" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="C29" s="90" t="s">
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="86">
+        <v>30</v>
+      </c>
+      <c r="B31" s="83" t="s">
+        <v>223</v>
+      </c>
+      <c r="C31" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88" t="s">
-        <v>277</v>
-      </c>
-      <c r="F29" s="90" t="s">
+      <c r="D31" s="85"/>
+      <c r="E31" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="F31" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="G29" s="116" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="89">
-        <v>29</v>
-      </c>
-      <c r="B30" s="88" t="s">
-        <v>236</v>
-      </c>
-      <c r="C30" s="90" t="s">
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="86">
+        <v>31</v>
+      </c>
+      <c r="B32" s="83" t="s">
+        <v>249</v>
+      </c>
+      <c r="C32" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88" t="s">
-        <v>278</v>
-      </c>
-      <c r="F30" s="90" t="s">
+      <c r="D32" s="85"/>
+      <c r="E32" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="F32" s="87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="86">
+        <v>32</v>
+      </c>
+      <c r="B33" s="83" t="s">
+        <v>244</v>
+      </c>
+      <c r="C33" s="87" t="s">
+        <v>208</v>
+      </c>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="F33" s="87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="86">
+        <v>33</v>
+      </c>
+      <c r="B34" s="83" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" s="88" t="s">
+        <v>208</v>
+      </c>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85" t="s">
+        <v>282</v>
+      </c>
+      <c r="F34" s="87" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="89">
-        <v>30</v>
-      </c>
-      <c r="B31" s="86" t="s">
-        <v>223</v>
-      </c>
-      <c r="C31" s="90" t="s">
-        <v>208</v>
-      </c>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88" t="s">
-        <v>279</v>
-      </c>
-      <c r="F31" s="90" t="s">
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="86">
+        <v>34</v>
+      </c>
+      <c r="B35" s="83" t="s">
+        <v>248</v>
+      </c>
+      <c r="C35" s="88" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85" t="s">
+        <v>283</v>
+      </c>
+      <c r="F35" s="87" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="89">
-        <v>31</v>
-      </c>
-      <c r="B32" s="86" t="s">
-        <v>249</v>
-      </c>
-      <c r="C32" s="90" t="s">
-        <v>208</v>
-      </c>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88" t="s">
-        <v>280</v>
-      </c>
-      <c r="F32" s="90" t="s">
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="86">
+        <v>35</v>
+      </c>
+      <c r="B36" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="C36" s="88" t="s">
+        <v>196</v>
+      </c>
+      <c r="D36" s="85"/>
+      <c r="E36" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F36" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="G32" s="67" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="89">
-        <v>32</v>
-      </c>
-      <c r="B33" s="86" t="s">
-        <v>244</v>
-      </c>
-      <c r="C33" s="90" t="s">
-        <v>208</v>
-      </c>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88" t="s">
-        <v>281</v>
-      </c>
-      <c r="F33" s="90" t="s">
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="86">
+        <v>36</v>
+      </c>
+      <c r="B37" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="C37" s="88" t="s">
+        <v>196</v>
+      </c>
+      <c r="D37" s="85"/>
+      <c r="E37" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="F37" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="117" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="89">
-        <v>33</v>
-      </c>
-      <c r="B34" s="86" t="s">
-        <v>224</v>
-      </c>
-      <c r="C34" s="91" t="s">
-        <v>208</v>
-      </c>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88" t="s">
-        <v>282</v>
-      </c>
-      <c r="F34" s="90" t="s">
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="86">
+        <v>37</v>
+      </c>
+      <c r="B38" s="84" t="s">
+        <v>234</v>
+      </c>
+      <c r="C38" s="88" t="s">
+        <v>196</v>
+      </c>
+      <c r="D38" s="85"/>
+      <c r="E38" s="84" t="s">
+        <v>234</v>
+      </c>
+      <c r="F38" s="87" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="89">
-        <v>34</v>
-      </c>
-      <c r="B35" s="86" t="s">
-        <v>248</v>
-      </c>
-      <c r="C35" s="91" t="s">
-        <v>196</v>
-      </c>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88" t="s">
-        <v>283</v>
-      </c>
-      <c r="F35" s="90" t="s">
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="86">
+        <v>38</v>
+      </c>
+      <c r="B39" s="85" t="s">
+        <v>239</v>
+      </c>
+      <c r="C39" s="88" t="s">
+        <v>200</v>
+      </c>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85" t="s">
+        <v>239</v>
+      </c>
+      <c r="F39" s="87" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="89">
-        <v>35</v>
-      </c>
-      <c r="B36" s="87" t="s">
-        <v>232</v>
-      </c>
-      <c r="C36" s="91" t="s">
-        <v>196</v>
-      </c>
-      <c r="D36" s="88"/>
-      <c r="E36" s="87" t="s">
-        <v>232</v>
-      </c>
-      <c r="F36" s="90" t="s">
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="86">
+        <v>39</v>
+      </c>
+      <c r="B40" s="85" t="s">
+        <v>240</v>
+      </c>
+      <c r="C40" s="88" t="s">
+        <v>200</v>
+      </c>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85" t="s">
+        <v>240</v>
+      </c>
+      <c r="F40" s="87" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="89">
-        <v>36</v>
-      </c>
-      <c r="B37" s="87" t="s">
-        <v>233</v>
-      </c>
-      <c r="C37" s="91" t="s">
-        <v>196</v>
-      </c>
-      <c r="D37" s="88"/>
-      <c r="E37" s="87" t="s">
-        <v>233</v>
-      </c>
-      <c r="F37" s="90" t="s">
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="86">
+        <v>40</v>
+      </c>
+      <c r="B41" s="85" t="s">
+        <v>243</v>
+      </c>
+      <c r="C41" s="88" t="s">
+        <v>200</v>
+      </c>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85" t="s">
+        <v>243</v>
+      </c>
+      <c r="F41" s="87" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="89">
-        <v>37</v>
-      </c>
-      <c r="B38" s="87" t="s">
-        <v>234</v>
-      </c>
-      <c r="C38" s="91" t="s">
-        <v>196</v>
-      </c>
-      <c r="D38" s="88"/>
-      <c r="E38" s="87" t="s">
-        <v>234</v>
-      </c>
-      <c r="F38" s="90" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="89">
-        <v>38</v>
-      </c>
-      <c r="B39" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="C39" s="91" t="s">
-        <v>200</v>
-      </c>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="F39" s="90" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="89">
-        <v>39</v>
-      </c>
-      <c r="B40" s="88" t="s">
-        <v>240</v>
-      </c>
-      <c r="C40" s="91" t="s">
-        <v>200</v>
-      </c>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88" t="s">
-        <v>240</v>
-      </c>
-      <c r="F40" s="90" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="89">
-        <v>40</v>
-      </c>
-      <c r="B41" s="88" t="s">
-        <v>243</v>
-      </c>
-      <c r="C41" s="91" t="s">
-        <v>200</v>
-      </c>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88" t="s">
-        <v>243</v>
-      </c>
-      <c r="F41" s="90" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="55" ht="41.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" ht="47.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4277,7 +4252,7 @@
   <dimension ref="A2:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4454,7 +4429,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4934,7 +4909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -4947,14 +4922,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
@@ -5279,9 +5254,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5296,15 +5271,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
     </row>
     <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
@@ -6010,14 +5985,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" customWidth="1"/>
     <col min="4" max="4" width="28.42578125" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
@@ -6053,7 +6028,7 @@
       <c r="D3" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="93" t="s">
+      <c r="E3" s="90" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="67"/>
@@ -6069,7 +6044,7 @@
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
-      <c r="F4" s="92"/>
+      <c r="F4" s="89"/>
       <c r="G4" s="67"/>
     </row>
     <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -6087,7 +6062,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="51"/>
-      <c r="F5" s="92"/>
+      <c r="F5" s="89"/>
       <c r="G5" s="67"/>
     </row>
     <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -6105,7 +6080,7 @@
         <v>220</v>
       </c>
       <c r="E6" s="51"/>
-      <c r="F6" s="92"/>
+      <c r="F6" s="89"/>
       <c r="G6" s="67"/>
     </row>
     <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -6123,7 +6098,7 @@
         <v>227</v>
       </c>
       <c r="E7" s="51"/>
-      <c r="F7" s="92" t="s">
+      <c r="F7" s="89" t="s">
         <v>286</v>
       </c>
       <c r="G7" s="67"/>
@@ -6143,7 +6118,7 @@
         <v>1.22</v>
       </c>
       <c r="E8" s="51"/>
-      <c r="F8" s="92" t="s">
+      <c r="F8" s="89" t="s">
         <v>285</v>
       </c>
       <c r="G8" s="67"/>
@@ -6163,7 +6138,7 @@
         <v>0.69499999999999995</v>
       </c>
       <c r="E9" s="51"/>
-      <c r="F9" s="92"/>
+      <c r="F9" s="89"/>
       <c r="G9" s="67"/>
     </row>
     <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -6181,7 +6156,7 @@
         <v>192.47329999999999</v>
       </c>
       <c r="E10" s="51"/>
-      <c r="F10" s="92" t="s">
+      <c r="F10" s="89" t="s">
         <v>284</v>
       </c>
       <c r="G10" s="67"/>
@@ -6197,10 +6172,11 @@
         <v>152</v>
       </c>
       <c r="D11" s="39">
+        <f>('Bảng VI'!E67)</f>
         <v>20</v>
       </c>
       <c r="E11" s="51"/>
-      <c r="F11" s="92"/>
+      <c r="F11" s="89"/>
       <c r="G11" s="67"/>
     </row>
     <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -6218,7 +6194,7 @@
         <v>378.33333333333337</v>
       </c>
       <c r="E12" s="51"/>
-      <c r="F12" s="92"/>
+      <c r="F12" s="89"/>
       <c r="G12" s="67"/>
     </row>
     <row r="13" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6235,7 +6211,7 @@
         <v>30000</v>
       </c>
       <c r="E13" s="51"/>
-      <c r="F13" s="92"/>
+      <c r="F13" s="89"/>
       <c r="G13" s="67"/>
     </row>
     <row r="14" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6248,12 +6224,12 @@
       <c r="C14" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="75">
+      <c r="D14" s="116">
         <f>1.4*D12*D11*D13</f>
         <v>317800000.00000006</v>
       </c>
       <c r="E14" s="51"/>
-      <c r="F14" s="92"/>
+      <c r="F14" s="89"/>
       <c r="G14" s="67"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -6275,7 +6251,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6322,7 +6298,7 @@
       <c r="C4" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="D4" s="76">
+      <c r="D4" s="91">
         <f>'Bảng VII'!D14</f>
         <v>317800000.00000006</v>
       </c>
@@ -6340,7 +6316,7 @@
       <c r="C5" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="77">
+      <c r="D5" s="92">
         <f>0.65 * D4</f>
         <v>206570000.00000006</v>
       </c>
@@ -6358,7 +6334,7 @@
       <c r="C6" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="93">
         <f>(D4+D5)*0.06</f>
         <v>31462200.000000007</v>
       </c>
@@ -6376,7 +6352,7 @@
       <c r="C7" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="93">
         <f>SUM(D4:D6)</f>
         <v>555832200.00000012</v>
       </c>
@@ -6392,7 +6368,7 @@
       <c r="C8" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="77">
+      <c r="D8" s="92">
         <f>SUM(D4:D6)</f>
         <v>555832200.00000012</v>
       </c>
@@ -6431,114 +6407,114 @@
       <c r="D1" s="115"/>
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="75" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78">
+      <c r="A3" s="75">
         <v>1</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="76" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78">
+      <c r="A4" s="75">
         <v>2</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="75" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="77" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78">
+      <c r="A5" s="75">
         <v>3</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="78" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78">
+      <c r="A6" s="75">
         <v>4</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="75" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="78" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78">
+      <c r="A7" s="75">
         <v>5</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="78" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="82">
+      <c r="A8" s="79">
         <v>6</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="79" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="80" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="82">
+      <c r="A9" s="79">
         <v>7</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="79" t="s">
         <v>208</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="80" t="s">
         <v>209</v>
       </c>
     </row>
